--- a/CrowdSourcingStudy/Results/f951049.xlsx
+++ b/CrowdSourcingStudy/Results/f951049.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="19875" windowHeight="7200" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="19875" windowHeight="7140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -501,6 +501,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,17 +561,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2897,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView topLeftCell="E6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,384 +2923,384 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
         <f>(4-C6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <f>AVERAGE(B6,D6)</f>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E14" si="0">AVERAGE(B6,D6)</f>
         <v>0.5</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="F6" s="4"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <f>(4-J6)</f>
         <v>3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f>AVERAGE(I6,K6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:D14" si="0">(4-C7)</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <f>AVERAGE(B7,D7)</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" ref="K7:K14" si="1">(4-J7)</f>
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" ref="L7:L14" si="2">AVERAGE(I7,K7)</f>
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D14" si="1">(4-C7)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K14" si="2">(4-J7)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L14" si="3">AVERAGE(I7,K7)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <f>AVERAGE(B8,D8)</f>
         <v>0.5</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="F8" s="4"/>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <f>AVERAGE(B9,D9)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="2">
-        <f>AVERAGE(B10,D10)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="H10" s="3">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="F12" s="4"/>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="2">
-        <f>AVERAGE(B11,D11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="3">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="F14" s="4"/>
+      <c r="H14" s="2">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <f>AVERAGE(B12,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="H12" s="3">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <f>AVERAGE(B13,D13)</f>
-        <v>2</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="H13" s="3">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <f>AVERAGE(B14,D14)</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="H14" s="3">
-        <v>9</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3302,14 +3308,14 @@
       <c r="A16" t="s">
         <v>119</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <f>AVERAGE(E6:E14)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="H16" t="s">
         <v>119</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <f>AVERAGE(L6:L14)</f>
         <v>2.7777777777777777</v>
       </c>
@@ -3318,456 +3324,459 @@
       <c r="A17" t="s">
         <v>120</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <f>_xlfn.STDEV.S(E6:E14)</f>
         <v>0.99303127398441549</v>
       </c>
       <c r="H17" t="s">
         <v>120</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <f>_xlfn.STDEV.S(L6:L14)</f>
         <v>0.79494933451412153</v>
       </c>
     </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="7"/>
+    </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="C23" s="2">
-        <f>C6-2</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <f>C23*-1</f>
-        <v>-2</v>
-      </c>
-      <c r="E23" s="2">
-        <f>AVERAGE(B23,D23)</f>
-        <v>-1.5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <f>I6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="J23" s="2">
-        <f>J6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K23" s="2">
-        <f>J23*-1</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <f>AVERAGE(I23,K23)</f>
-        <v>0</v>
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C6+1</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <f>5-C23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E31" si="4">AVERAGE(B23,D23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>I6+1</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <f>J6+1</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f>5-J23</f>
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L31" si="5">AVERAGE(I23,K23)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" ref="B24:C31" si="3">B7-2</f>
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D31" si="4">C24*-1</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <f>AVERAGE(B24,D24)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" ref="I24:I31" si="5">I7-2</f>
-        <v>-1</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" ref="I24:J24" si="6">J7-2</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" ref="K24:K31" si="7">J24*-1</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <f>AVERAGE(I24,K24)</f>
-        <v>-0.5</v>
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:C31" si="6">B7+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D31" si="7">5-C24</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:J31" si="8">I7+1</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K31" si="9">5-J24</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="E25" s="2">
-        <f>AVERAGE(B25,D25)</f>
-        <v>-1.5</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" ref="I25:J25" si="8">J8-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K25" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <f>AVERAGE(I25,K25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="E26" s="2">
-        <f>AVERAGE(B26,D26)</f>
-        <v>-2</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" ref="I26:J26" si="9">J9-2</f>
-        <v>-2</v>
-      </c>
-      <c r="K26" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L26" s="2">
-        <f>AVERAGE(I26,K26)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="I27" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="E27" s="2">
-        <f>AVERAGE(B27,D27)</f>
-        <v>-1.5</v>
-      </c>
-      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="I27" s="2">
+      <c r="D29" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" ref="I27:J27" si="10">J10-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K27" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <f>AVERAGE(I27,K27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="E28" s="2">
-        <f>AVERAGE(B28,D28)</f>
-        <v>-1.5</v>
-      </c>
-      <c r="H28" s="3">
-        <v>6</v>
-      </c>
-      <c r="I28" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" ref="I28:J28" si="11">J11-2</f>
-        <v>-2</v>
-      </c>
-      <c r="K28" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L28" s="2">
-        <f>AVERAGE(I28,K28)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="E29" s="2">
-        <f>AVERAGE(B29,D29)</f>
-        <v>-2</v>
-      </c>
-      <c r="H29" s="3">
-        <v>7</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H31" s="2">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" ref="I29:J29" si="12">J12-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
-        <f>AVERAGE(I29,K29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="E30" s="2">
-        <f>AVERAGE(B30,D30)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>8</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" ref="I30:J30" si="13">J13-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
-        <f>AVERAGE(I30,K30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="E31" s="2">
-        <f>AVERAGE(B31,D31)</f>
-        <v>-1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>9</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" ref="I31:J31" si="14">J14-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
-        <f>AVERAGE(I31,K31)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <f>AVERAGE(E23:E31)</f>
-        <v>-1.1111111111111112</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="7">
         <f>AVERAGE(L23:L31)</f>
-        <v>0.77777777777777779</v>
+        <v>3.2777777777777777</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <f>_xlfn.STDEV.S(E23:E31)</f>
         <v>0.99303127398441549</v>
       </c>
       <c r="H34" t="s">
         <v>120</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="7">
         <f>_xlfn.STDEV.S(L23:L31)</f>
-        <v>0.79494933451412131</v>
+        <v>0.79494933451412153</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3785,39 +3794,39 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="7">
         <f>AVERAGE(B23:B31)</f>
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="B38">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="B38" s="7">
         <f>AVERAGE(C23:C31)</f>
-        <v>1.5555555555555556</v>
-      </c>
-      <c r="H38">
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="H38" s="7">
         <f>AVERAGE(I23:I31)</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I38">
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="I38" s="7">
         <f>AVERAGE(J23:J31)</f>
-        <v>-1.1111111111111112</v>
+        <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="7">
         <f>_xlfn.STDEV.S(B23:B31)</f>
         <v>1.5811388300841898</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <f>_xlfn.STDEV.S(C23:C31)</f>
-        <v>0.72648315725677881</v>
-      </c>
-      <c r="H39">
+        <v>0.72648315725677948</v>
+      </c>
+      <c r="H39" s="7">
         <f>_xlfn.STDEV.S(I23:I31)</f>
-        <v>1.1303883305208779</v>
-      </c>
-      <c r="I39">
+        <v>1.1303883305208784</v>
+      </c>
+      <c r="I39" s="7">
         <f>_xlfn.STDEV.S(J23:J31)</f>
-        <v>0.60092521257733156</v>
+        <v>0.60092521257733122</v>
       </c>
     </row>
   </sheetData>
@@ -3835,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,383 +3865,383 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <f>(4-C6)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>AVERAGE(B6,D6)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="F6" s="4"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <f>(4-J6)</f>
         <v>3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f>AVERAGE(I6,K6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:D14" si="0">(4-C7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" ref="E7:E14" si="1">AVERAGE(B7,D7)</f>
         <v>1.5</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="F7" s="4"/>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" ref="K7:K14" si="2">(4-J7)</f>
         <v>2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L14" si="3">AVERAGE(I7,K7)</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="F8" s="4"/>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="F9" s="4"/>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="H10" s="3">
+      <c r="F10" s="4"/>
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="3">
+      <c r="F11" s="4"/>
+      <c r="H11" s="2">
         <v>6</v>
       </c>
-      <c r="I11" s="2">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>4</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="I11" s="1">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="H12" s="3">
+      <c r="F12" s="4"/>
+      <c r="H12" s="2">
         <v>7</v>
       </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="H13" s="3">
+      <c r="F13" s="4"/>
+      <c r="H13" s="2">
         <v>8</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="H14" s="3">
+      <c r="F14" s="4"/>
+      <c r="H14" s="2">
         <v>9</v>
       </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -4270,441 +4279,441 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B6-2</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <f>C6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="D23" s="2">
-        <f>C23*-1</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <f>AVERAGE(B23,D23)</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <f>I6-2</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <f>J6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K23" s="2">
-        <f>J23*-1</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <f>AVERAGE(I23,K23)</f>
-        <v>1</v>
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <f>5-C23</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E31" si="4">AVERAGE(B23,D23)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>I6+1</f>
+        <v>4</v>
+      </c>
+      <c r="J23" s="1">
+        <f>J6+1</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f>5-J23</f>
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L31" si="5">AVERAGE(I23,K23)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" ref="B24:C31" si="4">B7-2</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:C31" si="6">B7+1</f>
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D31" si="7">5-C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D31" si="5">C24*-1</f>
-        <v>-2</v>
-      </c>
-      <c r="E24" s="2">
-        <f>AVERAGE(B24,D24)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" ref="I24:J31" si="6">I7-2</f>
-        <v>2</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:J31" si="8">I7+1</f>
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K31" si="9">5-J24</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" ref="K24:K31" si="7">J24*-1</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <f>AVERAGE(I24,K24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="D25" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <f>AVERAGE(B25,D25)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="L25" s="2">
-        <f>AVERAGE(I25,K25)</f>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E26" s="2">
-        <f>AVERAGE(B26,D26)</f>
-        <v>2</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="L26" s="2">
-        <f>AVERAGE(I26,K26)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D27" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <f>AVERAGE(B27,D27)</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L27" s="2">
-        <f>AVERAGE(I27,K27)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <f>AVERAGE(B28,D28)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>6</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="L28" s="2">
-        <f>AVERAGE(I28,K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <f>AVERAGE(B29,D29)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>7</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L29" s="2">
-        <f>AVERAGE(I29,K29)</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f>AVERAGE(B30,D30)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>8</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L30" s="2">
-        <f>AVERAGE(I30,K30)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <f>AVERAGE(B31,D31)</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>9</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <f>AVERAGE(I31,K31)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <f>AVERAGE(E23:E31)</f>
-        <v>0.83333333333333337</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <f>AVERAGE(L23:L31)</f>
-        <v>-0.44444444444444442</v>
+        <v>2.0555555555555554</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <f>_xlfn.STDEV.S(E23:E31)</f>
         <v>0.82915619758884995</v>
       </c>
       <c r="H34" t="s">
         <v>120</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="6">
         <f>_xlfn.STDEV.S(L23:L31)</f>
         <v>1.044163673845139</v>
       </c>
@@ -4724,39 +4733,39 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="6">
         <f>AVERAGE(B23:B31)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="B38">
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="B38" s="6">
         <f>AVERAGE(C23:C31)</f>
-        <v>-1.1111111111111112</v>
-      </c>
-      <c r="H38">
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="H38" s="6">
         <f>AVERAGE(I23:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="I38" s="6">
         <f>AVERAGE(J23:J31)</f>
-        <v>0.88888888888888884</v>
+        <v>3.8888888888888888</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="6">
         <f>_xlfn.STDEV.S(B23:B31)</f>
-        <v>1.2360330811826103</v>
-      </c>
-      <c r="B39">
+        <v>1.2360330811826108</v>
+      </c>
+      <c r="B39" s="6">
         <f>_xlfn.STDEV.S(C23:C31)</f>
         <v>1.2692955176439846</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="6">
         <f>_xlfn.STDEV.S(I23:I31)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="6">
         <f>_xlfn.STDEV.S(J23:J31)</f>
-        <v>1.0540925533894598</v>
+        <v>1.0540925533894596</v>
       </c>
     </row>
   </sheetData>
@@ -4774,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38:I39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,383 +4803,383 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="4"/>
+      <c r="H5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <f>(4-C6)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>AVERAGE(B6,D6)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="F6" s="4"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
         <f>(4-J6)</f>
         <v>3</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f>AVERAGE(I6,K6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" ref="D7:D14" si="0">(4-C7)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" ref="E7:E14" si="1">AVERAGE(B7,D7)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="F7" s="4"/>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" ref="K7:K14" si="2">(4-J7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L14" si="3">AVERAGE(I7,K7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="H8" s="3">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="F8" s="4"/>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="F9" s="4"/>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="H10" s="3">
+      <c r="F10" s="4"/>
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="3">
+      <c r="F11" s="4"/>
+      <c r="H11" s="2">
         <v>6</v>
       </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="H12" s="3">
+      <c r="F12" s="4"/>
+      <c r="H12" s="2">
         <v>7</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="H13" s="3">
+      <c r="F13" s="4"/>
+      <c r="H13" s="2">
         <v>8</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="H14" s="3">
+      <c r="F14" s="4"/>
+      <c r="H14" s="2">
         <v>9</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -5208,441 +5217,441 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B6-2</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <f>C6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="D23" s="2">
-        <f>C23*-1</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <f>AVERAGE(B23,D23)</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <f>I6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="J23" s="2">
-        <f>J6-2</f>
-        <v>-1</v>
-      </c>
-      <c r="K23" s="2">
-        <f>J23*-1</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <f>AVERAGE(I23,K23)</f>
-        <v>0</v>
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <f>5-C23</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E31" si="4">AVERAGE(B23,D23)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>I6+1</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <f>J6+1</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="1">
+        <f>5-J23</f>
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" ref="L23:L31" si="5">AVERAGE(I23,K23)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2">
-        <f t="shared" ref="B24:C31" si="4">B7-2</f>
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:C31" si="6">B7+1</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ref="D24:D31" si="7">5-C24</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D31" si="5">C24*-1</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <f>AVERAGE(B24,D24)</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="2">
-        <f t="shared" ref="I24:J31" si="6">I7-2</f>
-        <v>-2</v>
-      </c>
-      <c r="J24" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:J24" si="8">I7+1</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" ref="K24:K31" si="9">5-J24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" ref="K24:K31" si="7">J24*-1</f>
-        <v>-2</v>
-      </c>
-      <c r="L24" s="2">
-        <f>AVERAGE(I24,K24)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C25" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ref="I25:J25" si="10">I8+1</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="D25" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" ref="I26:J26" si="11">I9+1</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <f>AVERAGE(B25,D25)</f>
-        <v>2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L25" s="2">
-        <f>AVERAGE(I25,K25)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ref="I27:J27" si="12">I10+1</f>
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="D26" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28:J28" si="13">I11+1</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E26" s="2">
-        <f>AVERAGE(B26,D26)</f>
-        <v>2</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
         <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="D29" s="1">
         <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="L26" s="2">
-        <f>AVERAGE(I26,K26)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:J29" si="14">I12+1</f>
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C30" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ref="I30:J30" si="15">I13+1</f>
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ref="I31:J31" si="16">I14+1</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <f>AVERAGE(B27,D27)</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L27" s="2">
-        <f>AVERAGE(I27,K27)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <f>AVERAGE(B28,D28)</f>
-        <v>1</v>
-      </c>
-      <c r="H28" s="3">
-        <v>6</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L28" s="2">
-        <f>AVERAGE(I28,K28)</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <f>AVERAGE(B29,D29)</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>7</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L29" s="2">
-        <f>AVERAGE(I29,K29)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>8</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f>AVERAGE(B30,D30)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H30" s="3">
-        <v>8</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L30" s="2">
-        <f>AVERAGE(I30,K30)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <f>AVERAGE(B31,D31)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H31" s="3">
-        <v>9</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="L31" s="2">
-        <f>AVERAGE(I31,K31)</f>
-        <v>-1.5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <f>AVERAGE(E23:E31)</f>
-        <v>1.3333333333333333</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="7">
         <f>AVERAGE(L23:L31)</f>
-        <v>-1.1111111111111112</v>
+        <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <f>_xlfn.STDEV.S(E23:E31)</f>
         <v>0.4330127018922193</v>
       </c>
       <c r="H34" t="s">
         <v>120</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="7">
         <f>_xlfn.STDEV.S(L23:L31)</f>
         <v>0.65085413965888794</v>
       </c>
@@ -5662,39 +5671,39 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="7">
         <f>AVERAGE(B23:B31)</f>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="B38">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="B38" s="7">
         <f>AVERAGE(C23:C31)</f>
-        <v>-1.2222222222222223</v>
-      </c>
-      <c r="H38">
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="H38" s="7">
         <f>AVERAGE(I23:I31)</f>
-        <v>-1.2222222222222223</v>
-      </c>
-      <c r="I38">
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="I38" s="8">
         <f>AVERAGE(J23:J31)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f>AVEDEV(B23:B31)</f>
-        <v>0.61728395061728392</v>
-      </c>
-      <c r="B39">
-        <f>AVEDEV(C23:C31)</f>
-        <v>0.5185185185185186</v>
-      </c>
-      <c r="H39">
-        <f>AVEDEV(I23:I31)</f>
-        <v>0.5185185185185186</v>
-      </c>
-      <c r="I39">
-        <f>AVEDEV(J23:J31)</f>
-        <v>0.44444444444444442</v>
+      <c r="A39" s="7">
+        <f>_xlfn.STDEV.S(B23:B31)</f>
+        <v>0.72648315725677948</v>
+      </c>
+      <c r="B39" s="7">
+        <f>_xlfn.STDEV.S(C23:C31)</f>
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="H39" s="7">
+        <f>_xlfn.STDEV.S(I23:I31)</f>
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="I39" s="7">
+        <f>_xlfn.STDEV.S(J23:J31)</f>
+        <v>0.8660254037844386</v>
       </c>
     </row>
   </sheetData>

--- a/CrowdSourcingStudy/Results/f951049.xlsx
+++ b/CrowdSourcingStudy/Results/f951049.xlsx
@@ -502,7 +502,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -569,12 +569,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,6 +587,731 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>H1: Consider other</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> preferences</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Agent A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P1'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.99303127398441549</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P1'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.99303127398441549</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P1'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3888888888888888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Agent B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P1'!$J$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.79494933451412153</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P1'!$J$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.79494933451412153</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P1'!$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.2777777777777777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="55487488"/>
+        <c:axId val="39788544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55487488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39788544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39788544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55487488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>H2:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Dominat agent is more demanding</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Agent A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P2'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.82915619758884995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P2'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.82915619758884995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Agent B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P2'!$J$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.044163673845139</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P2'!$J$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.044163673845139</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P2'!$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0555555555555554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="55486976"/>
+        <c:axId val="960489728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55486976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="960489728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="960489728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55486976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>H3: Dominant agent leads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> the dialogue</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Agent A</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P3'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.4330127018922193</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P3'!$C$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.4330127018922193</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P3'!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Agent B</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'P3'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.65085413965888794</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'P3'!$J$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.65085413965888794</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'P3'!$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3888888888888888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="950819840"/>
+        <c:axId val="949436992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="950819840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="949436992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="949436992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="950819840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2903,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,20 +3648,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3308,14 +4033,14 @@
       <c r="A16" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <f>AVERAGE(E6:E14)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="H16" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>AVERAGE(L6:L14)</f>
         <v>2.7777777777777777</v>
       </c>
@@ -3324,36 +4049,36 @@
       <c r="A17" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <f>_xlfn.STDEV.S(E6:E14)</f>
         <v>0.99303127398441549</v>
       </c>
       <c r="H17" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f>_xlfn.STDEV.S(L6:L14)</f>
         <v>0.79494933451412153</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -3751,14 +4476,14 @@
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f>AVERAGE(E23:E31)</f>
         <v>1.3888888888888888</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f>AVERAGE(L23:L31)</f>
         <v>3.2777777777777777</v>
       </c>
@@ -3767,14 +4492,14 @@
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f>_xlfn.STDEV.S(E23:E31)</f>
         <v>0.99303127398441549</v>
       </c>
       <c r="H34" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f>_xlfn.STDEV.S(L23:L31)</f>
         <v>0.79494933451412153</v>
       </c>
@@ -3794,37 +4519,37 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <f>AVERAGE(B23:B31)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <f>AVERAGE(C23:C31)</f>
         <v>4.5555555555555554</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f>AVERAGE(I23:I31)</f>
         <v>3.4444444444444446</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <f>AVERAGE(J23:J31)</f>
         <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <f>_xlfn.STDEV.S(B23:B31)</f>
         <v>1.5811388300841898</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <f>_xlfn.STDEV.S(C23:C31)</f>
         <v>0.72648315725677948</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f>_xlfn.STDEV.S(I23:I31)</f>
         <v>1.1303883305208784</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <f>_xlfn.STDEV.S(J23:J31)</f>
         <v>0.60092521257733122</v>
       </c>
@@ -3837,6 +4562,7 @@
     <mergeCell ref="H21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3844,8 +4570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="H17" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3865,20 +4591,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4279,20 +5005,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -4690,14 +5416,14 @@
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f>AVERAGE(E23:E31)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <f>AVERAGE(L23:L31)</f>
         <v>2.0555555555555554</v>
       </c>
@@ -4706,14 +5432,14 @@
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <f>_xlfn.STDEV.S(E23:E31)</f>
         <v>0.82915619758884995</v>
       </c>
       <c r="H34" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <f>_xlfn.STDEV.S(L23:L31)</f>
         <v>1.044163673845139</v>
       </c>
@@ -4733,37 +5459,37 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <f>AVERAGE(B23:B31)</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f>AVERAGE(C23:C31)</f>
         <v>1.8888888888888888</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <f>AVERAGE(I23:I31)</f>
         <v>3</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <f>AVERAGE(J23:J31)</f>
         <v>3.8888888888888888</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <f>_xlfn.STDEV.S(B23:B31)</f>
         <v>1.2360330811826108</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <f>_xlfn.STDEV.S(C23:C31)</f>
         <v>1.2692955176439846</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <f>_xlfn.STDEV.S(I23:I31)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <f>_xlfn.STDEV.S(J23:J31)</f>
         <v>1.0540925533894596</v>
       </c>
@@ -4776,6 +5502,7 @@
     <mergeCell ref="H21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4783,8 +5510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,20 +5530,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -5217,20 +5944,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="H21" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -5281,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" ref="E23:E31" si="4">AVERAGE(B23,D23)</f>
+        <f>AVERAGE(B23,D23)</f>
         <v>3.5</v>
       </c>
       <c r="H23" s="2">
@@ -5300,7 +6027,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" ref="L23:L31" si="5">AVERAGE(I23,K23)</f>
+        <f t="shared" ref="L23:L31" si="4">AVERAGE(I23,K23)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -5309,19 +6036,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:C31" si="6">B7+1</f>
+        <f t="shared" ref="B24:C31" si="5">B7+1</f>
         <v>5</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ref="D24:D31" si="7">5-C24</f>
+        <f t="shared" ref="D24:D31" si="6">5-C24</f>
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E24:E31" si="7">AVERAGE(B24,D24)</f>
         <v>3.5</v>
       </c>
       <c r="H24" s="2">
@@ -5340,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5349,19 +6076,19 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="H25" s="2">
@@ -5380,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -5389,19 +6116,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="H26" s="2">
@@ -5420,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5429,19 +6156,19 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="H27" s="2">
@@ -5460,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -5469,19 +6196,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="H28" s="2">
@@ -5500,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -5509,19 +6236,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="H29" s="2">
@@ -5540,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -5549,19 +6276,19 @@
         <v>8</v>
       </c>
       <c r="B30" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H30" s="2">
@@ -5580,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -5589,19 +6316,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H31" s="2">
@@ -5620,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5628,14 +6355,14 @@
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f>AVERAGE(E23:E31)</f>
         <v>3.8333333333333335</v>
       </c>
       <c r="H33" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f>AVERAGE(L23:L31)</f>
         <v>1.3888888888888888</v>
       </c>
@@ -5644,14 +6371,14 @@
       <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f>_xlfn.STDEV.S(E23:E31)</f>
         <v>0.4330127018922193</v>
       </c>
       <c r="H34" t="s">
         <v>120</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f>_xlfn.STDEV.S(L23:L31)</f>
         <v>0.65085413965888794</v>
       </c>
@@ -5671,37 +6398,37 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <f>AVERAGE(B23:B31)</f>
         <v>4.4444444444444446</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <f>AVERAGE(C23:C31)</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <f>AVERAGE(I23:I31)</f>
         <v>1.7777777777777777</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <f>AVERAGE(J23:J31)</f>
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <f>_xlfn.STDEV.S(B23:B31)</f>
         <v>0.72648315725677948</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <f>_xlfn.STDEV.S(C23:C31)</f>
         <v>0.66666666666666685</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f>_xlfn.STDEV.S(I23:I31)</f>
         <v>0.66666666666666685</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <f>_xlfn.STDEV.S(J23:J31)</f>
         <v>0.8660254037844386</v>
       </c>
@@ -5714,6 +6441,7 @@
     <mergeCell ref="H21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
